--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2021-06-16.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2021-06-16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="54">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,10 +73,10 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
-    <t>Taxi plages</t>
+    <t>Taxi plage</t>
   </si>
   <si>
     <t>Mare e Stagnu</t>
@@ -91,7 +91,7 @@
     <t>Speed boat</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
@@ -130,9 +130,6 @@
     <t>Equitation baignade</t>
   </si>
   <si>
-    <t>Taxi boat (popeye /saleccia)</t>
-  </si>
-  <si>
     <t>Malfalcu : Bateau Jaune et noir</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t>Voilier</t>
-  </si>
-  <si>
-    <t>Taxi plage</t>
   </si>
   <si>
     <t>Tous les bateaux sont à moteur, le dernier est habitable</t>
@@ -173,9 +167,6 @@
   </si>
   <si>
     <t>U Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>6 à bord, 2 déposées au Lotu</t>
@@ -1497,8 +1488,8 @@
   <sheetPr/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2061,7 +2052,7 @@
     <row r="27" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A27" s="3"/>
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C27" s="12">
         <v>2</v>
@@ -2152,7 +2143,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="40" customHeight="1" spans="1:9">
@@ -2194,7 +2185,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="16"/>
@@ -2307,7 +2298,7 @@
     <row r="39" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="18" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C39" s="12">
         <v>2</v>
@@ -2436,7 +2427,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="40" customHeight="1" spans="1:9">
@@ -2547,7 +2538,7 @@
     <row r="51" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A51" s="3"/>
       <c r="B51" s="18" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C51" s="12">
         <v>2</v>
@@ -2566,7 +2557,7 @@
     <row r="52" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A52" s="3"/>
       <c r="B52" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C52" s="12">
         <v>0</v>
@@ -2680,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="16"/>
@@ -2703,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
@@ -2795,7 +2786,7 @@
     <row r="63" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A63" s="3"/>
       <c r="B63" s="18" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C63" s="12">
         <v>1</v>
@@ -2810,7 +2801,7 @@
         <v>5</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -2888,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H67" s="15"/>
       <c r="I67" s="16"/>
@@ -2932,7 +2923,7 @@
         <v>5</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
@@ -3043,13 +3034,13 @@
     <row r="75" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A75" s="3"/>
       <c r="B75" s="18" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C75" s="12">
         <v>1</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>5</v>
@@ -3058,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -3098,7 +3089,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -3308,7 +3299,7 @@
     <row r="88" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A88" s="3"/>
       <c r="B88" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C88" s="12">
         <v>0</v>
@@ -3462,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
@@ -3552,8 +3543,8 @@
   <sheetPr/>
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3596,7 +3587,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3634,7 +3625,7 @@
     <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -3649,13 +3640,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
@@ -3671,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3852,7 +3843,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -3890,7 +3881,7 @@
     <row r="17" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3909,7 +3900,7 @@
     <row r="18" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -4020,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4104,7 +4095,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -4142,7 +4133,7 @@
     <row r="30" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -4161,7 +4152,7 @@
     <row r="31" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -4353,7 +4344,7 @@
         <v>0.5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="5">
         <v>0</v>
@@ -4391,7 +4382,7 @@
     <row r="43" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
@@ -4410,7 +4401,7 @@
     <row r="44" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
@@ -4602,7 +4593,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4640,7 +4631,7 @@
     <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -4659,7 +4650,7 @@
     <row r="57" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A57" s="3"/>
       <c r="B57" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C57" s="5">
         <v>0</v>
@@ -4750,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4854,7 +4845,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -4892,7 +4883,7 @@
     <row r="69" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C69" s="5">
         <v>0</v>
@@ -4911,7 +4902,7 @@
     <row r="70" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A70" s="3"/>
       <c r="B70" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -4926,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5023,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5035,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -5044,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5109,7 +5100,7 @@
         <v>0.625</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -5147,7 +5138,7 @@
     <row r="82" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C82" s="5">
         <v>0</v>
@@ -5166,7 +5157,7 @@
     <row r="83" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A83" s="3"/>
       <c r="B83" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C83" s="5">
         <v>0</v>
@@ -5358,7 +5349,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C93" s="5">
         <v>0</v>
@@ -5396,7 +5387,7 @@
     <row r="95" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C95" s="5">
         <v>0</v>
@@ -5415,7 +5406,7 @@
     <row r="96" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A96" s="3"/>
       <c r="B96" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C96" s="5">
         <v>0</v>
@@ -5607,7 +5598,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C106" s="5">
         <v>0</v>
@@ -5645,7 +5636,7 @@
     <row r="108" ht="42" customHeight="1" spans="1:7">
       <c r="A108" s="3"/>
       <c r="B108" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C108" s="5">
         <v>0</v>
@@ -5664,7 +5655,7 @@
     <row r="109" ht="42" customHeight="1" spans="1:7">
       <c r="A109" s="3"/>
       <c r="B109" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C109" s="5">
         <v>0</v>
